--- a/Tables/Sources/gameplay/Arena/ArenaEnemyName.xlsx
+++ b/Tables/Sources/gameplay/Arena/ArenaEnemyName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,303 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>青芒派</t>
+  </si>
+  <si>
+    <t>草莓派</t>
+  </si>
+  <si>
+    <t>蜜桃派</t>
+  </si>
+  <si>
+    <t>苹果派</t>
+  </si>
+  <si>
+    <t>巧克力派</t>
+  </si>
+  <si>
+    <t>奥利奥派</t>
+  </si>
+  <si>
+    <t>归一派</t>
+  </si>
+  <si>
+    <t>四方派</t>
+  </si>
+  <si>
+    <t>五岳派</t>
+  </si>
+  <si>
+    <t>灵犀派</t>
+  </si>
+  <si>
+    <t>青龙派</t>
+  </si>
+  <si>
+    <t>白虎派</t>
+  </si>
+  <si>
+    <t>朱雀派</t>
+  </si>
+  <si>
+    <t>玄武派</t>
+  </si>
+  <si>
+    <t>万花派</t>
+  </si>
+  <si>
+    <t>金蛇派</t>
+  </si>
+  <si>
+    <t>万里派</t>
+  </si>
+  <si>
+    <t>六合派</t>
+  </si>
+  <si>
+    <t>龙游派</t>
+  </si>
+  <si>
+    <t>青竹派</t>
+  </si>
+  <si>
+    <t>王屋派</t>
+  </si>
+  <si>
+    <t>九龙派</t>
+  </si>
+  <si>
+    <t>青海派</t>
+  </si>
+  <si>
+    <t>海沙派</t>
+  </si>
+  <si>
+    <t>乌金派</t>
+  </si>
+  <si>
+    <t>空明派</t>
+  </si>
+  <si>
+    <t>松风派</t>
+  </si>
+  <si>
+    <t>清风派</t>
+  </si>
+  <si>
+    <t>流云派</t>
+  </si>
+  <si>
+    <t>冷月派</t>
+  </si>
+  <si>
+    <t>黄桃派</t>
+  </si>
+  <si>
+    <t>香梨派</t>
+  </si>
+  <si>
+    <t>同归门</t>
+  </si>
+  <si>
+    <t>极乐门</t>
+  </si>
+  <si>
+    <t>天罡门</t>
+  </si>
+  <si>
+    <t>北斗门</t>
+  </si>
+  <si>
+    <t>八卦门</t>
+  </si>
+  <si>
+    <t>碧血门</t>
+  </si>
+  <si>
+    <t>金刀门</t>
+  </si>
+  <si>
+    <t>琵琶门</t>
+  </si>
+  <si>
+    <t>赤练门</t>
+  </si>
+  <si>
+    <t>玉碎门</t>
+  </si>
+  <si>
+    <t>血衣门</t>
+  </si>
+  <si>
+    <t>落雁门</t>
+  </si>
+  <si>
+    <t>无影门</t>
+  </si>
+  <si>
+    <t>大前门</t>
+  </si>
+  <si>
+    <t>羽衣门</t>
+  </si>
+  <si>
+    <t>金雁门</t>
+  </si>
+  <si>
+    <t>冲天门</t>
+  </si>
+  <si>
+    <t>形意门</t>
+  </si>
+  <si>
+    <t>三才门</t>
+  </si>
+  <si>
+    <t>混元门</t>
+  </si>
+  <si>
+    <t>五虎门</t>
+  </si>
+  <si>
+    <t>七煞门</t>
+  </si>
+  <si>
+    <t>天龙门</t>
+  </si>
+  <si>
+    <t>断肠门</t>
+  </si>
+  <si>
+    <t>暗流门</t>
+  </si>
+  <si>
+    <t>海棠门</t>
+  </si>
+  <si>
+    <t>牡丹门</t>
+  </si>
+  <si>
+    <t>万花门</t>
+  </si>
+  <si>
+    <t>琉璃门</t>
+  </si>
+  <si>
+    <t>万影门</t>
+  </si>
+  <si>
+    <t>地蛟门</t>
+  </si>
+  <si>
+    <t>玄犀门</t>
+  </si>
+  <si>
+    <t>万宇门</t>
+  </si>
+  <si>
+    <t>星辰门</t>
+  </si>
+  <si>
+    <t>星宿阁</t>
+  </si>
+  <si>
+    <t>凌云阁</t>
+  </si>
+  <si>
+    <t>摘星阁</t>
+  </si>
+  <si>
+    <t>御风阁</t>
+  </si>
+  <si>
+    <t>映月阁</t>
+  </si>
+  <si>
+    <t>曜日阁</t>
+  </si>
+  <si>
+    <t>善水阁</t>
+  </si>
+  <si>
+    <t>听雨阁</t>
+  </si>
+  <si>
+    <t>上清阁</t>
+  </si>
+  <si>
+    <t>灵鹫阁</t>
+  </si>
+  <si>
+    <t>无相阁</t>
+  </si>
+  <si>
+    <t>天山阁</t>
+  </si>
+  <si>
+    <t>如意阁</t>
+  </si>
+  <si>
+    <t>飞星阁</t>
+  </si>
+  <si>
+    <t>临风阁</t>
+  </si>
+  <si>
+    <t>重阳阁</t>
+  </si>
+  <si>
+    <t>轻烟阁</t>
+  </si>
+  <si>
+    <t>蓬莱阁</t>
+  </si>
+  <si>
+    <t>海潮阁</t>
+  </si>
+  <si>
+    <t>冲灵阁</t>
+  </si>
+  <si>
+    <t>移星阁</t>
+  </si>
+  <si>
+    <t>沐雪阁</t>
+  </si>
+  <si>
+    <t>乌鸡阁</t>
+  </si>
+  <si>
+    <t>排云阁</t>
+  </si>
+  <si>
+    <t>浮尘阁</t>
+  </si>
+  <si>
+    <t>星罗阁</t>
+  </si>
+  <si>
+    <t>玄冥派</t>
+  </si>
+  <si>
+    <t>花田阁</t>
+  </si>
+  <si>
+    <t>松山派</t>
+  </si>
+  <si>
+    <t>灵水阁</t>
+  </si>
+  <si>
+    <t>好阁阁</t>
+  </si>
+  <si>
+    <t>任意门</t>
+  </si>
+  <si>
+    <t>万水阁</t>
   </si>
   <si>
     <t>Coin</t>
@@ -79,8 +376,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,9 +402,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,8 +509,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,106 +533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +554,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +662,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,151 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +763,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -477,36 +785,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,19 +816,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,8 +840,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +866,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,143 +878,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,19 +1368,19 @@
   <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B204" sqref="B204"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="14.25" spans="1:2">
+    <row r="1" s="2" customFormat="1" ht="12" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" s="2" customFormat="1" ht="12" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" s="2" customFormat="1" ht="12" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" s="2" customFormat="1" ht="12" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1112,504 +1412,804 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>100</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -2128,12 +2728,12 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2403,7 +3003,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2441,10 +3041,10 @@
         <v>1001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2472,10 +3072,10 @@
         <v>1002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2514,10 +3114,10 @@
         <v>1003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2556,10 +3156,10 @@
         <v>1004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:12">

--- a/Tables/Sources/gameplay/Arena/ArenaEnemyName.xlsx
+++ b/Tables/Sources/gameplay/Arena/ArenaEnemyName.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Arena\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4092C3-E8B4-4540-A714-A397585CF096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -367,19 +373,359 @@
   </si>
   <si>
     <t>银木</t>
+  </si>
+  <si>
+    <t>虎爪山</t>
+  </si>
+  <si>
+    <t>北斗楼</t>
+  </si>
+  <si>
+    <t>青虹院</t>
+  </si>
+  <si>
+    <t>碧涛院</t>
+  </si>
+  <si>
+    <t>神鹰帮</t>
+  </si>
+  <si>
+    <t>神魔阁</t>
+  </si>
+  <si>
+    <t>赤凤楼</t>
+  </si>
+  <si>
+    <t>破山阁</t>
+  </si>
+  <si>
+    <t>虎凤坊</t>
+  </si>
+  <si>
+    <t>血魔派</t>
+  </si>
+  <si>
+    <t>惊天阁</t>
+  </si>
+  <si>
+    <t>真龙会</t>
+  </si>
+  <si>
+    <t>无涯寺</t>
+  </si>
+  <si>
+    <t>赤雷阁</t>
+  </si>
+  <si>
+    <t>血阳山</t>
+  </si>
+  <si>
+    <t>勾陈居</t>
+  </si>
+  <si>
+    <t>无量舫</t>
+  </si>
+  <si>
+    <t>赤云刹</t>
+  </si>
+  <si>
+    <t>归元书院</t>
+  </si>
+  <si>
+    <t>毒蛇圣殿</t>
+  </si>
+  <si>
+    <t>计都剑派</t>
+  </si>
+  <si>
+    <t>潇湘山</t>
+  </si>
+  <si>
+    <t>风刃谷</t>
+  </si>
+  <si>
+    <t>云浪剑派</t>
+  </si>
+  <si>
+    <t>紫羽居</t>
+  </si>
+  <si>
+    <t>清静殿</t>
+  </si>
+  <si>
+    <t>飞鹤塔</t>
+  </si>
+  <si>
+    <t>大日观</t>
+  </si>
+  <si>
+    <t>妖灵舫</t>
+  </si>
+  <si>
+    <t>曦和楼</t>
+  </si>
+  <si>
+    <t>虎凤岛</t>
+  </si>
+  <si>
+    <t>陨日客栈</t>
+  </si>
+  <si>
+    <t>烈光帮</t>
+  </si>
+  <si>
+    <t>慾天谷</t>
+  </si>
+  <si>
+    <t>阿含庵</t>
+  </si>
+  <si>
+    <t>天日府</t>
+  </si>
+  <si>
+    <t>玄阴堡</t>
+  </si>
+  <si>
+    <t>烈日神教</t>
+  </si>
+  <si>
+    <t>追日山庄</t>
+  </si>
+  <si>
+    <t>飞狐阁</t>
+  </si>
+  <si>
+    <t>凶魔道</t>
+  </si>
+  <si>
+    <t>不败祠</t>
+  </si>
+  <si>
+    <t>托天坞</t>
+  </si>
+  <si>
+    <t>紫电山</t>
+  </si>
+  <si>
+    <t>游鱼苑</t>
+  </si>
+  <si>
+    <t>金刚城</t>
+  </si>
+  <si>
+    <t>开山坞</t>
+  </si>
+  <si>
+    <t>莲华寺</t>
+  </si>
+  <si>
+    <t>寒鸦斋</t>
+  </si>
+  <si>
+    <t>七星教</t>
+  </si>
+  <si>
+    <t>飞龙楼</t>
+  </si>
+  <si>
+    <t>血阳斋</t>
+  </si>
+  <si>
+    <t>太初坊</t>
+  </si>
+  <si>
+    <t>烽火岛</t>
+  </si>
+  <si>
+    <t>狂沙玄门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫影居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负炎廊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊虹谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍羽楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索命楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定禅间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极上寺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚月教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖神教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵剑派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南斗岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百炼山庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万丈山庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘雪山庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风火殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤月堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风蛊门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼心堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连环楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白凤教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神阙楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡红楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹心阁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以太坊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神庙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁人村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风灵谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜月岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十绝谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神风堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞云堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮霜堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊觉门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步天谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得一山庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩诃剑派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神锋谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊寂楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神剑界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白龙谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,151 +741,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,198 +771,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -762,253 +799,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1019,62 +814,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1359,28 +1113,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="4" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="12" spans="1:2">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="12" spans="1:2">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="12" spans="1:2">
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1404,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="12" spans="1:2">
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +1165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1420,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1428,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1436,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1444,7 +1197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1452,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1460,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1468,7 +1221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1476,7 +1229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1484,7 +1237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1492,7 +1245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1500,7 +1253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1508,7 +1261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1516,7 +1269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1524,7 +1277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1532,7 +1285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1540,7 +1293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1548,7 +1301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1556,7 +1309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1564,7 +1317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1572,7 +1325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1580,7 +1333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1588,7 +1341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1596,7 +1349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1604,7 +1357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1612,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1620,7 +1373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1628,7 +1381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1636,7 +1389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1644,7 +1397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1652,7 +1405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1660,7 +1413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -1668,7 +1421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1676,7 +1429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1684,7 +1437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -1692,7 +1445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -1700,7 +1453,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -1708,7 +1461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -1716,7 +1469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -1724,7 +1477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -1732,7 +1485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -1740,7 +1493,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -1748,7 +1501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -1756,7 +1509,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -1764,7 +1517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -1772,7 +1525,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -1780,7 +1533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -1788,7 +1541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -1796,7 +1549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -1804,7 +1557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -1812,7 +1565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -1820,7 +1573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -1828,7 +1581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -1836,7 +1589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -1844,7 +1597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -1852,7 +1605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -1860,7 +1613,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -1868,7 +1621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -1876,7 +1629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -1884,7 +1637,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -1892,7 +1645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -1900,7 +1653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -1908,7 +1661,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -1916,7 +1669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -1924,7 +1677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -1932,7 +1685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -1940,7 +1693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -1948,7 +1701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -1956,7 +1709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -1964,7 +1717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -1972,7 +1725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -1980,7 +1733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -1988,7 +1741,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -1996,7 +1749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -2004,7 +1757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -2012,7 +1765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -2020,7 +1773,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -2028,7 +1781,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -2036,7 +1789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -2044,7 +1797,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -2052,7 +1805,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -2060,7 +1813,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -2068,7 +1821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -2076,7 +1829,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -2084,7 +1837,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -2092,7 +1845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -2100,7 +1853,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -2108,7 +1861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -2116,7 +1869,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -2124,7 +1877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -2132,7 +1885,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -2140,7 +1893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -2148,7 +1901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -2156,7 +1909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -2164,7 +1917,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -2172,7 +1925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -2180,7 +1933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -2188,7 +1941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -2196,7 +1949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -2204,7 +1957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -2212,525 +1965,824 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>200</v>
       </c>
+      <c r="B204" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>106</v>
@@ -2746,7 +2798,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2776,7 +2828,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2806,7 +2858,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2836,7 +2888,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2866,7 +2918,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2896,7 +2948,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2926,7 +2978,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2956,7 +3008,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2964,7 +3016,7 @@
         <v>15000</v>
       </c>
       <c r="C9" s="1">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -2986,7 +3038,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3000,7 +3052,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>107</v>
@@ -3016,7 +3068,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3047,7 +3099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3078,7 +3130,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -3120,7 +3172,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -3162,7 +3214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -3198,7 +3250,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -3234,7 +3286,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -3259,7 +3311,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -3285,7 +3337,7 @@
       <c r="L19" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>